--- a/data/trans_bre/P75-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P75-Habitat-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 16,14</t>
+          <t>-9,11; 15,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 7,73</t>
+          <t>-12,49; 7,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 87,22</t>
+          <t>-31,61; 84,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 47,46</t>
+          <t>-46,93; 47,33</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 9,51</t>
+          <t>-2,42; 8,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 7,29</t>
+          <t>-1,4; 7,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 32,7</t>
+          <t>-6,77; 28,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 54,82</t>
+          <t>-8,93; 52,49</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 8,67</t>
+          <t>-0,26; 9,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,27</t>
+          <t>-3,23; 4,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 27,19</t>
+          <t>-0,78; 27,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 23,86</t>
+          <t>-14,52; 23,93</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 2,94</t>
+          <t>-6,57; 2,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 4,04</t>
+          <t>-1,87; 3,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 15,0</t>
+          <t>-26,54; 12,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 72,48</t>
+          <t>-21,74; 62,41</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 0,86</t>
+          <t>-6,03; 0,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,93</t>
+          <t>-2,46; 3,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 5,89</t>
+          <t>-31,09; 5,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 31,13</t>
+          <t>-19,13; 36,84</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,69</t>
+          <t>-1,81; 2,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,36</t>
+          <t>-1,18; 2,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 10,66</t>
+          <t>-6,58; 10,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 17,55</t>
+          <t>-7,82; 17,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P75-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P75-Habitat-trans_bre.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 15,96</t>
+          <t>-8,67; 15,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 7,52</t>
+          <t>-13,27; 7,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 84,59</t>
+          <t>-28,46; 82,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 47,33</t>
+          <t>-47,76; 49,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 8,6</t>
+          <t>-2,71; 8,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 7,07</t>
+          <t>-1,96; 6,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 28,42</t>
+          <t>-7,05; 27,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 52,49</t>
+          <t>-10,55; 54,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 9,04</t>
+          <t>0,27; 9,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,37</t>
+          <t>-2,98; 4,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 27,48</t>
+          <t>0,66; 27,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 23,93</t>
+          <t>-13,08; 23,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 2,54</t>
+          <t>-6,45; 2,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,81</t>
+          <t>-1,66; 3,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 12,58</t>
+          <t>-25,64; 14,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 62,41</t>
+          <t>-19,89; 66,22</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 0,67</t>
+          <t>-5,99; 0,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,44</t>
+          <t>-2,44; 3,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 5,51</t>
+          <t>-31,51; 4,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 36,84</t>
+          <t>-19,67; 35,7</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,73</t>
+          <t>-1,67; 2,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,33</t>
+          <t>-0,91; 2,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 10,99</t>
+          <t>-5,99; 11,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 17,85</t>
+          <t>-6,2; 18,54</t>
         </is>
       </c>
     </row>
